--- a/Code/Results/Cases/Case_7_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016466611429951</v>
+        <v>1.034588267260824</v>
       </c>
       <c r="D2">
-        <v>1.030130133735476</v>
+        <v>1.045830505154143</v>
       </c>
       <c r="E2">
-        <v>1.028203662291324</v>
+        <v>1.044217242178686</v>
       </c>
       <c r="F2">
-        <v>1.034844275120001</v>
+        <v>1.051111413752273</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047923023360342</v>
+        <v>1.057827834295656</v>
       </c>
       <c r="J2">
-        <v>1.038165721322707</v>
+        <v>1.055781469748644</v>
       </c>
       <c r="K2">
-        <v>1.041185079538115</v>
+        <v>1.056686242412566</v>
       </c>
       <c r="L2">
-        <v>1.039283575927294</v>
+        <v>1.055093104504356</v>
       </c>
       <c r="M2">
-        <v>1.045838613771585</v>
+        <v>1.061901810595158</v>
       </c>
       <c r="N2">
-        <v>1.039640035726297</v>
+        <v>1.057280800535515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02388925817619</v>
+        <v>1.040617513616599</v>
       </c>
       <c r="D3">
-        <v>1.035796617172723</v>
+        <v>1.050498876052798</v>
       </c>
       <c r="E3">
-        <v>1.03460687390723</v>
+        <v>1.04941392597141</v>
       </c>
       <c r="F3">
-        <v>1.041646133862133</v>
+        <v>1.056734533555841</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050283626692521</v>
+        <v>1.060067834124857</v>
       </c>
       <c r="J3">
-        <v>1.043749205632687</v>
+        <v>1.060058981628788</v>
       </c>
       <c r="K3">
-        <v>1.045991078817603</v>
+        <v>1.060523950486795</v>
       </c>
       <c r="L3">
-        <v>1.044815303350475</v>
+        <v>1.059451300278677</v>
       </c>
       <c r="M3">
-        <v>1.051772494617826</v>
+        <v>1.066689518292962</v>
       </c>
       <c r="N3">
-        <v>1.045231449224393</v>
+        <v>1.061564386973165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028552319979625</v>
+        <v>1.044423494214936</v>
       </c>
       <c r="D4">
-        <v>1.039358346993331</v>
+        <v>1.053448107795542</v>
       </c>
       <c r="E4">
-        <v>1.038635386194648</v>
+        <v>1.052699705517589</v>
       </c>
       <c r="F4">
-        <v>1.045926456137928</v>
+        <v>1.060290896324489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051754596042007</v>
+        <v>1.061472214937127</v>
       </c>
       <c r="J4">
-        <v>1.047252818239269</v>
+        <v>1.062755280235006</v>
       </c>
       <c r="K4">
-        <v>1.049003870159362</v>
+        <v>1.062941574924594</v>
       </c>
       <c r="L4">
-        <v>1.048288848186607</v>
+        <v>1.062201124056352</v>
       </c>
       <c r="M4">
-        <v>1.055500471561832</v>
+        <v>1.069712298158129</v>
       </c>
       <c r="N4">
-        <v>1.048740037362746</v>
+        <v>1.064264514632675</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030481020635714</v>
+        <v>1.046001730778163</v>
       </c>
       <c r="D5">
-        <v>1.040831879337892</v>
+        <v>1.054671561152286</v>
       </c>
       <c r="E5">
-        <v>1.040302953208821</v>
+        <v>1.054063457245439</v>
       </c>
       <c r="F5">
-        <v>1.047698505383691</v>
+        <v>1.061767190888028</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052360063446953</v>
+        <v>1.062052220605156</v>
       </c>
       <c r="J5">
-        <v>1.048700919625508</v>
+        <v>1.063872383008144</v>
       </c>
       <c r="K5">
-        <v>1.050248374877174</v>
+        <v>1.063942861314063</v>
       </c>
       <c r="L5">
-        <v>1.049725091668251</v>
+        <v>1.063341039432648</v>
       </c>
       <c r="M5">
-        <v>1.057042375534699</v>
+        <v>1.070965837376963</v>
       </c>
       <c r="N5">
-        <v>1.050190195219053</v>
+        <v>1.065383203819884</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030803052641121</v>
+        <v>1.046265474073731</v>
       </c>
       <c r="D6">
-        <v>1.04107793063962</v>
+        <v>1.054876042459218</v>
       </c>
       <c r="E6">
-        <v>1.040581459603095</v>
+        <v>1.054291428041108</v>
       </c>
       <c r="F6">
-        <v>1.04799447648397</v>
+        <v>1.062013989106642</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052460982470303</v>
+        <v>1.062149007322908</v>
       </c>
       <c r="J6">
-        <v>1.048942643972679</v>
+        <v>1.064059006200447</v>
       </c>
       <c r="K6">
-        <v>1.050456070120434</v>
+        <v>1.064110114776646</v>
       </c>
       <c r="L6">
-        <v>1.0499648699065</v>
+        <v>1.063531511048569</v>
       </c>
       <c r="M6">
-        <v>1.057299820530057</v>
+        <v>1.071175322590967</v>
       </c>
       <c r="N6">
-        <v>1.050432262842523</v>
+        <v>1.065570092038525</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028578213416966</v>
+        <v>1.044444667027832</v>
       </c>
       <c r="D7">
-        <v>1.039378128371724</v>
+        <v>1.053464519177911</v>
       </c>
       <c r="E7">
-        <v>1.038657768698324</v>
+        <v>1.052717996128085</v>
       </c>
       <c r="F7">
-        <v>1.04595024003998</v>
+        <v>1.060310695404042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05176273637031</v>
+        <v>1.061480005354068</v>
       </c>
       <c r="J7">
-        <v>1.047272263659562</v>
+        <v>1.062770270640772</v>
       </c>
       <c r="K7">
-        <v>1.049020584567877</v>
+        <v>1.062955012624954</v>
       </c>
       <c r="L7">
-        <v>1.048308132132055</v>
+        <v>1.062216418070586</v>
       </c>
       <c r="M7">
-        <v>1.055521172362093</v>
+        <v>1.069729114768214</v>
       </c>
       <c r="N7">
-        <v>1.048759510397766</v>
+        <v>1.064279526326535</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019005250337716</v>
+        <v>1.036646261730356</v>
       </c>
       <c r="D8">
-        <v>1.032067668703805</v>
+        <v>1.047423457577112</v>
       </c>
       <c r="E8">
-        <v>1.03039234508407</v>
+        <v>1.045989891322513</v>
       </c>
       <c r="F8">
-        <v>1.037169011715054</v>
+        <v>1.053029330353294</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048732874411776</v>
+        <v>1.05859442254351</v>
       </c>
       <c r="J8">
-        <v>1.040076156287268</v>
+        <v>1.057242326400279</v>
       </c>
       <c r="K8">
-        <v>1.042830100207584</v>
+        <v>1.057997194448005</v>
       </c>
       <c r="L8">
-        <v>1.041175787552472</v>
+        <v>1.05658095286911</v>
       </c>
       <c r="M8">
-        <v>1.047867985513946</v>
+        <v>1.06353588162667</v>
       </c>
       <c r="N8">
-        <v>1.041553183727598</v>
+        <v>1.058743731771157</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000973654179446</v>
+        <v>1.022124313858384</v>
       </c>
       <c r="D9">
-        <v>1.018318807113567</v>
+        <v>1.036195840037951</v>
       </c>
       <c r="E9">
-        <v>1.014875879531279</v>
+        <v>1.033506907451175</v>
       </c>
       <c r="F9">
-        <v>1.020692051786345</v>
+        <v>1.039527051103077</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042931484241777</v>
+        <v>1.053145776057114</v>
       </c>
       <c r="J9">
-        <v>1.026492076995704</v>
+        <v>1.046919287627352</v>
       </c>
       <c r="K9">
-        <v>1.0311215051558</v>
+        <v>1.048727745728228</v>
       </c>
       <c r="L9">
-        <v>1.027732129969893</v>
+        <v>1.046078782410382</v>
       </c>
       <c r="M9">
-        <v>1.033458104139769</v>
+        <v>1.052009804583233</v>
       </c>
       <c r="N9">
-        <v>1.027949813485324</v>
+        <v>1.048406033099104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9880269010326912</v>
+        <v>1.011842219450785</v>
       </c>
       <c r="D10">
-        <v>1.00847006306275</v>
+        <v>1.028266183037966</v>
       </c>
       <c r="E10">
-        <v>1.003777862328625</v>
+        <v>1.024704069550383</v>
       </c>
       <c r="F10">
-        <v>1.008911888845685</v>
+        <v>1.03000964236612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038706451076435</v>
+        <v>1.049239935089672</v>
       </c>
       <c r="J10">
-        <v>1.016723745185838</v>
+        <v>1.039593743199574</v>
       </c>
       <c r="K10">
-        <v>1.022688053587018</v>
+        <v>1.042143172592549</v>
       </c>
       <c r="L10">
-        <v>1.018079239683864</v>
+        <v>1.038641164126862</v>
       </c>
       <c r="M10">
-        <v>1.023122079329014</v>
+        <v>1.043857409089614</v>
       </c>
       <c r="N10">
-        <v>1.018167609523845</v>
+        <v>1.041070085557987</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.982163532936883</v>
+        <v>1.007228297678923</v>
       </c>
       <c r="D11">
-        <v>1.004017401333178</v>
+        <v>1.024713857220295</v>
       </c>
       <c r="E11">
-        <v>0.998763810352456</v>
+        <v>1.020763485013642</v>
       </c>
       <c r="F11">
-        <v>1.003590676028071</v>
+        <v>1.025750024287347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036780030404665</v>
+        <v>1.047476607309204</v>
       </c>
       <c r="J11">
-        <v>1.012297627103946</v>
+        <v>1.036303432328107</v>
       </c>
       <c r="K11">
-        <v>1.018863950956244</v>
+        <v>1.039184285803833</v>
       </c>
       <c r="L11">
-        <v>1.013709077114159</v>
+        <v>1.035304175131689</v>
       </c>
       <c r="M11">
-        <v>1.018445193661836</v>
+        <v>1.040202139720686</v>
       </c>
       <c r="N11">
-        <v>1.013735205846594</v>
+        <v>1.037775102067678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9799432310746731</v>
+        <v>1.005488365718235</v>
       </c>
       <c r="D12">
-        <v>1.002332661118178</v>
+        <v>1.023375271975217</v>
       </c>
       <c r="E12">
-        <v>0.9968671139032911</v>
+        <v>1.019279007820715</v>
       </c>
       <c r="F12">
-        <v>1.00157793165413</v>
+        <v>1.024145474627973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036048710358503</v>
+        <v>1.046810117325916</v>
       </c>
       <c r="J12">
-        <v>1.010621371797552</v>
+        <v>1.035062250741368</v>
       </c>
       <c r="K12">
-        <v>1.017415307061007</v>
+        <v>1.038067934850277</v>
       </c>
       <c r="L12">
-        <v>1.01205458220747</v>
+        <v>1.034045944168992</v>
       </c>
       <c r="M12">
-        <v>1.016674963294558</v>
+        <v>1.038824258429341</v>
       </c>
       <c r="N12">
-        <v>1.012056570065396</v>
+        <v>1.03653215786072</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.980421476624719</v>
+        <v>1.005862800052241</v>
       </c>
       <c r="D13">
-        <v>1.002695483255411</v>
+        <v>1.023663288537851</v>
       </c>
       <c r="E13">
-        <v>0.9972755629211683</v>
+        <v>1.019598397054248</v>
       </c>
       <c r="F13">
-        <v>1.002011365016325</v>
+        <v>1.024490692947075</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036206315128078</v>
+        <v>1.046953614306803</v>
       </c>
       <c r="J13">
-        <v>1.010982438430135</v>
+        <v>1.035329370042951</v>
       </c>
       <c r="K13">
-        <v>1.017727362608445</v>
+        <v>1.038308197171339</v>
       </c>
       <c r="L13">
-        <v>1.012410935592467</v>
+        <v>1.034316707350991</v>
       </c>
       <c r="M13">
-        <v>1.017056226865631</v>
+        <v>1.039120753429759</v>
       </c>
       <c r="N13">
-        <v>1.012418149454013</v>
+        <v>1.03679965650235</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9819808900472222</v>
+        <v>1.007085018289243</v>
       </c>
       <c r="D14">
-        <v>1.003878784982376</v>
+        <v>1.02460360652786</v>
       </c>
       <c r="E14">
-        <v>0.9986077458705728</v>
+        <v>1.020641209932796</v>
       </c>
       <c r="F14">
-        <v>1.003425060012877</v>
+        <v>1.025617856750341</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03671990825773</v>
+        <v>1.047421754056574</v>
       </c>
       <c r="J14">
-        <v>1.01215974099234</v>
+        <v>1.036201231340887</v>
       </c>
       <c r="K14">
-        <v>1.018744795315124</v>
+        <v>1.03909236733406</v>
       </c>
       <c r="L14">
-        <v>1.013572969313255</v>
+        <v>1.035200558874292</v>
       </c>
       <c r="M14">
-        <v>1.018299556973239</v>
+        <v>1.04008866289866</v>
       </c>
       <c r="N14">
-        <v>1.013597123920894</v>
+        <v>1.037672755943333</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.982935959813265</v>
+        <v>1.0078345491356</v>
       </c>
       <c r="D15">
-        <v>1.004603689489955</v>
+        <v>1.025180397853278</v>
       </c>
       <c r="E15">
-        <v>0.9994239148285395</v>
+        <v>1.021280925060644</v>
       </c>
       <c r="F15">
-        <v>1.004291186308148</v>
+        <v>1.026309331417772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037034222986802</v>
+        <v>1.047708643460268</v>
       </c>
       <c r="J15">
-        <v>1.012880762793367</v>
+        <v>1.036735855241861</v>
       </c>
       <c r="K15">
-        <v>1.019367858089341</v>
+        <v>1.039573194696</v>
       </c>
       <c r="L15">
-        <v>1.014284715379755</v>
+        <v>1.035742608992075</v>
       </c>
       <c r="M15">
-        <v>1.019061148005036</v>
+        <v>1.040682311412789</v>
       </c>
       <c r="N15">
-        <v>1.014319169655581</v>
+        <v>1.038208139071569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.988410304770532</v>
+        <v>1.012144871819505</v>
       </c>
       <c r="D16">
-        <v>1.008761397131938</v>
+        <v>1.028499333210106</v>
       </c>
       <c r="E16">
-        <v>1.004105993656822</v>
+        <v>1.024962760682548</v>
       </c>
       <c r="F16">
-        <v>1.009260141929099</v>
+        <v>1.030289293720207</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038832159963943</v>
+        <v>1.049355385993701</v>
       </c>
       <c r="J16">
-        <v>1.017013132536917</v>
+        <v>1.039809514646052</v>
       </c>
       <c r="K16">
-        <v>1.022938024990697</v>
+        <v>1.04233718266886</v>
       </c>
       <c r="L16">
-        <v>1.018365045716817</v>
+        <v>1.038860073334173</v>
       </c>
       <c r="M16">
-        <v>1.023427997927642</v>
+        <v>1.044097247591079</v>
       </c>
       <c r="N16">
-        <v>1.018457407838156</v>
+        <v>1.041286163424668</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9917728398101268</v>
+        <v>1.01480409873649</v>
       </c>
       <c r="D17">
-        <v>1.011317349103149</v>
+        <v>1.030548576268937</v>
       </c>
       <c r="E17">
-        <v>1.006985156697825</v>
+        <v>1.027236819761026</v>
       </c>
       <c r="F17">
-        <v>1.012315976908405</v>
+        <v>1.032747700530352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039933203684957</v>
+        <v>1.050368585715814</v>
       </c>
       <c r="J17">
-        <v>1.019550888640505</v>
+        <v>1.041705028329279</v>
       </c>
       <c r="K17">
-        <v>1.025129811952102</v>
+        <v>1.04404137147528</v>
       </c>
       <c r="L17">
-        <v>1.020871809356947</v>
+        <v>1.040783567391857</v>
       </c>
       <c r="M17">
-        <v>1.026111454287732</v>
+        <v>1.046204914764474</v>
       </c>
       <c r="N17">
-        <v>1.020998767846496</v>
+        <v>1.043184368954743</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9937095960106865</v>
+        <v>1.016339710505219</v>
       </c>
       <c r="D18">
-        <v>1.0127902342088</v>
+        <v>1.031732499997</v>
       </c>
       <c r="E18">
-        <v>1.008644619158361</v>
+        <v>1.028550904773942</v>
       </c>
       <c r="F18">
-        <v>1.014077365425819</v>
+        <v>1.034168393285225</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040566157626058</v>
+        <v>1.050952663468326</v>
       </c>
       <c r="J18">
-        <v>1.021012371825984</v>
+        <v>1.042799324806049</v>
       </c>
       <c r="K18">
-        <v>1.026391784272739</v>
+        <v>1.045025082225425</v>
       </c>
       <c r="L18">
-        <v>1.022315785118576</v>
+        <v>1.041894362085963</v>
       </c>
       <c r="M18">
-        <v>1.027657450285623</v>
+        <v>1.047422295480495</v>
       </c>
       <c r="N18">
-        <v>1.022462326505733</v>
+        <v>1.044280219458028</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9943659204144735</v>
+        <v>1.016860742849995</v>
       </c>
       <c r="D19">
-        <v>1.013289476580875</v>
+        <v>1.032134295879142</v>
       </c>
       <c r="E19">
-        <v>1.009207159623221</v>
+        <v>1.028996922010182</v>
       </c>
       <c r="F19">
-        <v>1.01467447464685</v>
+        <v>1.034650608669651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040780440721299</v>
+        <v>1.051150667468894</v>
       </c>
       <c r="J19">
-        <v>1.021507596346003</v>
+        <v>1.043170566525723</v>
       </c>
       <c r="K19">
-        <v>1.026819357658852</v>
+        <v>1.045358784622272</v>
       </c>
       <c r="L19">
-        <v>1.022805134506565</v>
+        <v>1.042271259111963</v>
       </c>
       <c r="M19">
-        <v>1.02818141390937</v>
+        <v>1.047835396390303</v>
       </c>
       <c r="N19">
-        <v>1.022958254301374</v>
+        <v>1.044651988383526</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9914146366795646</v>
+        <v>1.014520401616738</v>
       </c>
       <c r="D20">
-        <v>1.011044994669857</v>
+        <v>1.030329896117993</v>
       </c>
       <c r="E20">
-        <v>1.006678328523052</v>
+        <v>1.026994120344537</v>
       </c>
       <c r="F20">
-        <v>1.011990310988707</v>
+        <v>1.032485318278514</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039816038719694</v>
+        <v>1.05026059787125</v>
       </c>
       <c r="J20">
-        <v>1.01928056890242</v>
+        <v>1.041502837588855</v>
       </c>
       <c r="K20">
-        <v>1.024896372212149</v>
+        <v>1.043859602590317</v>
       </c>
       <c r="L20">
-        <v>1.020604755326626</v>
+        <v>1.040578356163734</v>
       </c>
       <c r="M20">
-        <v>1.025825551662062</v>
+        <v>1.045980031039141</v>
       </c>
       <c r="N20">
-        <v>1.020728064223377</v>
+        <v>1.042981891080277</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9815228841083584</v>
+        <v>1.006725841941351</v>
       </c>
       <c r="D21">
-        <v>1.003531205256837</v>
+        <v>1.024327244068325</v>
       </c>
       <c r="E21">
-        <v>0.9982164221709279</v>
+        <v>1.020334712794657</v>
       </c>
       <c r="F21">
-        <v>1.003009788603839</v>
+        <v>1.025286564741728</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036569113357291</v>
+        <v>1.047284222162225</v>
       </c>
       <c r="J21">
-        <v>1.011813966974566</v>
+        <v>1.035945025351606</v>
       </c>
       <c r="K21">
-        <v>1.018445985280055</v>
+        <v>1.03886193542304</v>
       </c>
       <c r="L21">
-        <v>1.013231663950322</v>
+        <v>1.034940813990196</v>
       </c>
       <c r="M21">
-        <v>1.017934363095915</v>
+        <v>1.0398042053525</v>
       </c>
       <c r="N21">
-        <v>1.013250858864355</v>
+        <v>1.03741618611216</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9750560908952164</v>
+        <v>1.001672955853217</v>
       </c>
       <c r="D22">
-        <v>0.9986271283800114</v>
+        <v>1.020441958316572</v>
       </c>
       <c r="E22">
-        <v>0.9926961615294244</v>
+        <v>1.016026721181176</v>
       </c>
       <c r="F22">
-        <v>0.9971520345805853</v>
+        <v>1.020630315362656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034435739942794</v>
+        <v>1.045345866268886</v>
       </c>
       <c r="J22">
-        <v>1.006931524866389</v>
+        <v>1.032339896271922</v>
       </c>
       <c r="K22">
-        <v>1.014225831273204</v>
+        <v>1.035619049407475</v>
       </c>
       <c r="L22">
-        <v>1.008413710858495</v>
+        <v>1.031287233965608</v>
       </c>
       <c r="M22">
-        <v>1.012780122134464</v>
+        <v>1.035803868589811</v>
       </c>
       <c r="N22">
-        <v>1.00836148312836</v>
+        <v>1.033805937335669</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9785090942310889</v>
+        <v>1.004366663779177</v>
       </c>
       <c r="D23">
-        <v>1.00124486746023</v>
+        <v>1.022512611822572</v>
       </c>
       <c r="E23">
-        <v>0.9956425862222245</v>
+        <v>1.018322439261213</v>
       </c>
       <c r="F23">
-        <v>1.000278521212353</v>
+        <v>1.023111563414895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035575834044439</v>
+        <v>1.046380021207956</v>
       </c>
       <c r="J23">
-        <v>1.009538605941112</v>
+        <v>1.034261984023726</v>
       </c>
       <c r="K23">
-        <v>1.016479462818122</v>
+        <v>1.037348102954041</v>
       </c>
       <c r="L23">
-        <v>1.010986035601014</v>
+        <v>1.033234843309667</v>
       </c>
       <c r="M23">
-        <v>1.015531778945437</v>
+        <v>1.037936127439917</v>
       </c>
       <c r="N23">
-        <v>1.010972266557245</v>
+        <v>1.035730754672548</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.991576568857772</v>
+        <v>1.014648639806744</v>
       </c>
       <c r="D24">
-        <v>1.011168115222013</v>
+        <v>1.03042874329415</v>
       </c>
       <c r="E24">
-        <v>1.006817032262828</v>
+        <v>1.027103823779851</v>
       </c>
       <c r="F24">
-        <v>1.012137530153507</v>
+        <v>1.03260391837124</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039869009070994</v>
+        <v>1.050309414216345</v>
       </c>
       <c r="J24">
-        <v>1.019402772490484</v>
+        <v>1.041594233785982</v>
       </c>
       <c r="K24">
-        <v>1.025001904277626</v>
+        <v>1.043941767916254</v>
       </c>
       <c r="L24">
-        <v>1.020725481526499</v>
+        <v>1.040671116640837</v>
       </c>
       <c r="M24">
-        <v>1.025954797937694</v>
+        <v>1.046081683255863</v>
       </c>
       <c r="N24">
-        <v>1.020850441354553</v>
+        <v>1.043073417070486</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005786868703505</v>
+        <v>1.025978481441711</v>
       </c>
       <c r="D25">
-        <v>1.021985567928516</v>
+        <v>1.039172652200856</v>
       </c>
       <c r="E25">
-        <v>1.019010989185076</v>
+        <v>1.036814166469982</v>
       </c>
       <c r="F25">
-        <v>1.025082270783907</v>
+        <v>1.043103589650403</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044490555542786</v>
+        <v>1.054600313037726</v>
       </c>
       <c r="J25">
-        <v>1.030121038846209</v>
+        <v>1.049662116332559</v>
       </c>
       <c r="K25">
-        <v>1.034251910614171</v>
+        <v>1.051191842328847</v>
       </c>
       <c r="L25">
-        <v>1.031321181939846</v>
+        <v>1.048866658611643</v>
       </c>
       <c r="M25">
-        <v>1.037303306084851</v>
+        <v>1.055067697038417</v>
       </c>
       <c r="N25">
-        <v>1.031583928877906</v>
+        <v>1.051152756935679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034588267260824</v>
+        <v>1.018248468121085</v>
       </c>
       <c r="D2">
-        <v>1.045830505154143</v>
+        <v>1.030982303723992</v>
       </c>
       <c r="E2">
-        <v>1.044217242178686</v>
+        <v>1.030959168885034</v>
       </c>
       <c r="F2">
-        <v>1.051111413752273</v>
+        <v>1.039153991247505</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057827834295656</v>
+        <v>1.049816880206383</v>
       </c>
       <c r="J2">
-        <v>1.055781469748644</v>
+        <v>1.039896740952317</v>
       </c>
       <c r="K2">
-        <v>1.056686242412566</v>
+        <v>1.042026242303664</v>
       </c>
       <c r="L2">
-        <v>1.055093104504356</v>
+        <v>1.042003405989844</v>
       </c>
       <c r="M2">
-        <v>1.061901810595158</v>
+        <v>1.050093522862278</v>
       </c>
       <c r="N2">
-        <v>1.057280800535515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016862132547647</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048218013057586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040617513616599</v>
+        <v>1.022268051438605</v>
       </c>
       <c r="D3">
-        <v>1.050498876052798</v>
+        <v>1.033818449070741</v>
       </c>
       <c r="E3">
-        <v>1.04941392597141</v>
+        <v>1.034107375031124</v>
       </c>
       <c r="F3">
-        <v>1.056734533555841</v>
+        <v>1.042142348201838</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060067834124857</v>
+        <v>1.050926868538605</v>
       </c>
       <c r="J3">
-        <v>1.060058981628788</v>
+        <v>1.042169540696791</v>
       </c>
       <c r="K3">
-        <v>1.060523950486795</v>
+        <v>1.044036156690025</v>
       </c>
       <c r="L3">
-        <v>1.059451300278677</v>
+        <v>1.044321680539244</v>
       </c>
       <c r="M3">
-        <v>1.066689518292962</v>
+        <v>1.052262975420189</v>
       </c>
       <c r="N3">
-        <v>1.061564386973165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017646694985487</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049934969186064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044423494214936</v>
+        <v>1.024820630172644</v>
       </c>
       <c r="D4">
-        <v>1.053448107795542</v>
+        <v>1.035622182326882</v>
       </c>
       <c r="E4">
-        <v>1.052699705517589</v>
+        <v>1.036112448774105</v>
       </c>
       <c r="F4">
-        <v>1.060290896324489</v>
+        <v>1.044047577239803</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061472214937127</v>
+        <v>1.051623565976175</v>
       </c>
       <c r="J4">
-        <v>1.062755280235006</v>
+        <v>1.043610048139932</v>
       </c>
       <c r="K4">
-        <v>1.062941574924594</v>
+        <v>1.045308879031975</v>
       </c>
       <c r="L4">
-        <v>1.062201124056352</v>
+        <v>1.045793721804515</v>
       </c>
       <c r="M4">
-        <v>1.069712298158129</v>
+        <v>1.053641935517523</v>
       </c>
       <c r="N4">
-        <v>1.064264514632675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018143589400304</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051026308805809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046001730778163</v>
+        <v>1.025882508482742</v>
       </c>
       <c r="D5">
-        <v>1.054671561152286</v>
+        <v>1.036373138606816</v>
       </c>
       <c r="E5">
-        <v>1.054063457245439</v>
+        <v>1.036947930050934</v>
       </c>
       <c r="F5">
-        <v>1.061767190888028</v>
+        <v>1.044841919477855</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062052220605156</v>
+        <v>1.05191139623811</v>
       </c>
       <c r="J5">
-        <v>1.063872383008144</v>
+        <v>1.044208598807295</v>
       </c>
       <c r="K5">
-        <v>1.063942861314063</v>
+        <v>1.045837423900803</v>
       </c>
       <c r="L5">
-        <v>1.063341039432648</v>
+        <v>1.046406026325005</v>
       </c>
       <c r="M5">
-        <v>1.070965837376963</v>
+        <v>1.054215860700046</v>
       </c>
       <c r="N5">
-        <v>1.065383203819884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018349964369618</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051480525461373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046265474073731</v>
+        <v>1.026060154186808</v>
       </c>
       <c r="D6">
-        <v>1.054876042459218</v>
+        <v>1.036498802949707</v>
       </c>
       <c r="E6">
-        <v>1.054291428041108</v>
+        <v>1.037087780164551</v>
       </c>
       <c r="F6">
-        <v>1.062013989106642</v>
+        <v>1.044974910510755</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062149007322908</v>
+        <v>1.051959430096705</v>
       </c>
       <c r="J6">
-        <v>1.064059006200447</v>
+        <v>1.044308690393348</v>
       </c>
       <c r="K6">
-        <v>1.064110114776646</v>
+        <v>1.045925791662371</v>
       </c>
       <c r="L6">
-        <v>1.063531511048569</v>
+        <v>1.046508456173338</v>
       </c>
       <c r="M6">
-        <v>1.071175322590967</v>
+        <v>1.054311890075905</v>
       </c>
       <c r="N6">
-        <v>1.065570092038525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018384469559525</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051556525134924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044444667027832</v>
+        <v>1.024834862696531</v>
       </c>
       <c r="D7">
-        <v>1.053464519177911</v>
+        <v>1.035632245203457</v>
       </c>
       <c r="E7">
-        <v>1.052717996128085</v>
+        <v>1.036123641516098</v>
       </c>
       <c r="F7">
-        <v>1.060310695404042</v>
+        <v>1.044058217026514</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061480005354068</v>
+        <v>1.051627431742159</v>
       </c>
       <c r="J7">
-        <v>1.062770270640772</v>
+        <v>1.043618073428887</v>
       </c>
       <c r="K7">
-        <v>1.062955012624954</v>
+        <v>1.045315966844623</v>
       </c>
       <c r="L7">
-        <v>1.062216418070586</v>
+        <v>1.04580192893006</v>
       </c>
       <c r="M7">
-        <v>1.069729114768214</v>
+        <v>1.053649626885052</v>
       </c>
       <c r="N7">
-        <v>1.064279526326535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018146356815951</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051032395920274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036646261730356</v>
+        <v>1.019617135170113</v>
       </c>
       <c r="D8">
-        <v>1.047423457577112</v>
+        <v>1.031947422164439</v>
       </c>
       <c r="E8">
-        <v>1.045989891322513</v>
+        <v>1.032029883590031</v>
       </c>
       <c r="F8">
-        <v>1.053029330353294</v>
+        <v>1.040169926716347</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05859442254351</v>
+        <v>1.050196524466046</v>
       </c>
       <c r="J8">
-        <v>1.057242326400279</v>
+        <v>1.040671196006124</v>
       </c>
       <c r="K8">
-        <v>1.057997194448005</v>
+        <v>1.042711358899379</v>
       </c>
       <c r="L8">
-        <v>1.05658095286911</v>
+        <v>1.042792788036032</v>
       </c>
       <c r="M8">
-        <v>1.06353588162667</v>
+        <v>1.050831932633735</v>
       </c>
       <c r="N8">
-        <v>1.058743731771157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017129545368144</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048802408481942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022124313858384</v>
+        <v>1.01003586098911</v>
       </c>
       <c r="D9">
-        <v>1.036195840037951</v>
+        <v>1.02520435181294</v>
       </c>
       <c r="E9">
-        <v>1.033506907451175</v>
+        <v>1.024560759281135</v>
       </c>
       <c r="F9">
-        <v>1.039527051103077</v>
+        <v>1.033091455604947</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053145776057114</v>
+        <v>1.047505625064966</v>
       </c>
       <c r="J9">
-        <v>1.046919287627352</v>
+        <v>1.035239137472617</v>
       </c>
       <c r="K9">
-        <v>1.048727745728228</v>
+        <v>1.037901325557242</v>
       </c>
       <c r="L9">
-        <v>1.046078782410382</v>
+        <v>1.037267538317842</v>
       </c>
       <c r="M9">
-        <v>1.052009804583233</v>
+        <v>1.045669529594622</v>
       </c>
       <c r="N9">
-        <v>1.048406033099104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015252531494964</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044716747671812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011842219450785</v>
+        <v>1.003444673633995</v>
       </c>
       <c r="D10">
-        <v>1.028266183037966</v>
+        <v>1.020595654821846</v>
       </c>
       <c r="E10">
-        <v>1.024704069550383</v>
+        <v>1.01949315420171</v>
       </c>
       <c r="F10">
-        <v>1.03000964236612</v>
+        <v>1.028346315182979</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049239935089672</v>
+        <v>1.045638341570385</v>
       </c>
       <c r="J10">
-        <v>1.039593743199574</v>
+        <v>1.03152228575143</v>
       </c>
       <c r="K10">
-        <v>1.042143172592549</v>
+        <v>1.034602745634631</v>
       </c>
       <c r="L10">
-        <v>1.038641164126862</v>
+        <v>1.0335191527346</v>
       </c>
       <c r="M10">
-        <v>1.043857409089614</v>
+        <v>1.042221958809079</v>
       </c>
       <c r="N10">
-        <v>1.041070085557987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013973972096459</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042039454354517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007228297678923</v>
+        <v>1.001179258860283</v>
       </c>
       <c r="D11">
-        <v>1.024713857220295</v>
+        <v>1.019111614433455</v>
       </c>
       <c r="E11">
-        <v>1.020763485013642</v>
+        <v>1.018048391432126</v>
       </c>
       <c r="F11">
-        <v>1.025750024287347</v>
+        <v>1.027368109637989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047476607309204</v>
+        <v>1.045185744037091</v>
       </c>
       <c r="J11">
-        <v>1.036303432328107</v>
+        <v>1.030503061441298</v>
       </c>
       <c r="K11">
-        <v>1.039184285803833</v>
+        <v>1.033681894645332</v>
       </c>
       <c r="L11">
-        <v>1.035304175131689</v>
+        <v>1.032637783257757</v>
       </c>
       <c r="M11">
-        <v>1.040202139720686</v>
+        <v>1.041791722895465</v>
       </c>
       <c r="N11">
-        <v>1.037775102067678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013686938766584</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042133348301517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005488365718235</v>
+        <v>1.000587318088347</v>
       </c>
       <c r="D12">
-        <v>1.023375271975217</v>
+        <v>1.018774493181745</v>
       </c>
       <c r="E12">
-        <v>1.019279007820715</v>
+        <v>1.017811459815729</v>
       </c>
       <c r="F12">
-        <v>1.024145474627973</v>
+        <v>1.027418867697</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046810117325916</v>
+        <v>1.045166202143315</v>
       </c>
       <c r="J12">
-        <v>1.035062250741368</v>
+        <v>1.030366842340634</v>
       </c>
       <c r="K12">
-        <v>1.038067934850277</v>
+        <v>1.033550631165636</v>
       </c>
       <c r="L12">
-        <v>1.034045944168992</v>
+        <v>1.032605195145272</v>
       </c>
       <c r="M12">
-        <v>1.038824258429341</v>
+        <v>1.042038966289307</v>
       </c>
       <c r="N12">
-        <v>1.03653215786072</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013693116451421</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042653997170122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005862800052241</v>
+        <v>1.001244778276807</v>
       </c>
       <c r="D13">
-        <v>1.023663288537851</v>
+        <v>1.019296939508587</v>
       </c>
       <c r="E13">
-        <v>1.019598397054248</v>
+        <v>1.018489987086726</v>
       </c>
       <c r="F13">
-        <v>1.024490692947075</v>
+        <v>1.028276564944163</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046953614306803</v>
+        <v>1.0454825953477</v>
       </c>
       <c r="J13">
-        <v>1.035329370042951</v>
+        <v>1.03090412142247</v>
       </c>
       <c r="K13">
-        <v>1.038308197171339</v>
+        <v>1.034020723703489</v>
       </c>
       <c r="L13">
-        <v>1.034316707350991</v>
+        <v>1.033228444760265</v>
       </c>
       <c r="M13">
-        <v>1.039120753429759</v>
+        <v>1.042839081728719</v>
       </c>
       <c r="N13">
-        <v>1.03679965650235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01392606423127</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04356226218291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007085018289243</v>
+        <v>1.002267319264065</v>
       </c>
       <c r="D14">
-        <v>1.02460360652786</v>
+        <v>1.020049037567328</v>
       </c>
       <c r="E14">
-        <v>1.020641209932796</v>
+        <v>1.019375218862142</v>
       </c>
       <c r="F14">
-        <v>1.025617856750341</v>
+        <v>1.029238258620651</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047421754056574</v>
+        <v>1.045853868840614</v>
       </c>
       <c r="J14">
-        <v>1.036201231340887</v>
+        <v>1.031581598074478</v>
       </c>
       <c r="K14">
-        <v>1.03909236733406</v>
+        <v>1.034618996955679</v>
       </c>
       <c r="L14">
-        <v>1.035200558874292</v>
+        <v>1.033957271105134</v>
       </c>
       <c r="M14">
-        <v>1.04008866289866</v>
+        <v>1.043645348887257</v>
       </c>
       <c r="N14">
-        <v>1.037672755943333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014190337042624</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044372320821052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0078345491356</v>
+        <v>1.002791478607418</v>
       </c>
       <c r="D15">
-        <v>1.025180397853278</v>
+        <v>1.020422579000672</v>
       </c>
       <c r="E15">
-        <v>1.021280925060644</v>
+        <v>1.019797456038716</v>
       </c>
       <c r="F15">
-        <v>1.026309331417772</v>
+        <v>1.029662524154539</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047708643460268</v>
+        <v>1.046020297469297</v>
       </c>
       <c r="J15">
-        <v>1.036735855241861</v>
+        <v>1.031898199143287</v>
       </c>
       <c r="K15">
-        <v>1.039573194696</v>
+        <v>1.034899518014879</v>
       </c>
       <c r="L15">
-        <v>1.035742608992075</v>
+        <v>1.034285526123281</v>
       </c>
       <c r="M15">
-        <v>1.040682311412789</v>
+        <v>1.04397697520307</v>
       </c>
       <c r="N15">
-        <v>1.038208139071569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014305853050124</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044671852259242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012144871819505</v>
+        <v>1.005450495904971</v>
       </c>
       <c r="D16">
-        <v>1.028499333210106</v>
+        <v>1.022266497913799</v>
       </c>
       <c r="E16">
-        <v>1.024962760682548</v>
+        <v>1.021811568750173</v>
       </c>
       <c r="F16">
-        <v>1.030289293720207</v>
+        <v>1.031533132056794</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049355385993701</v>
+        <v>1.046759919177336</v>
       </c>
       <c r="J16">
-        <v>1.039809514646052</v>
+        <v>1.033373420356388</v>
       </c>
       <c r="K16">
-        <v>1.04233718266886</v>
+        <v>1.036209501842692</v>
       </c>
       <c r="L16">
-        <v>1.038860073334173</v>
+        <v>1.035762312678449</v>
       </c>
       <c r="M16">
-        <v>1.044097247591079</v>
+        <v>1.045320390248625</v>
       </c>
       <c r="N16">
-        <v>1.041286163424668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014803501064477</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045695108599933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01480409873649</v>
+        <v>1.00695597173565</v>
       </c>
       <c r="D17">
-        <v>1.030548576268937</v>
+        <v>1.023288647144496</v>
       </c>
       <c r="E17">
-        <v>1.027236819761026</v>
+        <v>1.022894009436555</v>
       </c>
       <c r="F17">
-        <v>1.032747700530352</v>
+        <v>1.032460141031673</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050368585715814</v>
+        <v>1.047130693100763</v>
       </c>
       <c r="J17">
-        <v>1.041705028329279</v>
+        <v>1.034149441861783</v>
       </c>
       <c r="K17">
-        <v>1.04404137147528</v>
+        <v>1.036900302401005</v>
       </c>
       <c r="L17">
-        <v>1.040783567391857</v>
+        <v>1.036512187954348</v>
       </c>
       <c r="M17">
-        <v>1.046204914764474</v>
+        <v>1.045921996809927</v>
       </c>
       <c r="N17">
-        <v>1.043184368954743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015046338740667</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046042099349071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016339710505219</v>
+        <v>1.007599953350882</v>
       </c>
       <c r="D18">
-        <v>1.031732499997</v>
+        <v>1.023687188390178</v>
       </c>
       <c r="E18">
-        <v>1.028550904773942</v>
+        <v>1.023249370937264</v>
       </c>
       <c r="F18">
-        <v>1.034168393285225</v>
+        <v>1.032612956008219</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050952663468326</v>
+        <v>1.047209560408308</v>
       </c>
       <c r="J18">
-        <v>1.042799324806049</v>
+        <v>1.034378886625852</v>
       </c>
       <c r="K18">
-        <v>1.045025082225425</v>
+        <v>1.037109203682652</v>
       </c>
       <c r="L18">
-        <v>1.041894362085963</v>
+        <v>1.036678504853058</v>
       </c>
       <c r="M18">
-        <v>1.047422295480495</v>
+        <v>1.045891530320115</v>
       </c>
       <c r="N18">
-        <v>1.044280219458028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015085547098053</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045781365040834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016860742849995</v>
+        <v>1.007462757581441</v>
       </c>
       <c r="D19">
-        <v>1.032134295879142</v>
+        <v>1.02352111830928</v>
       </c>
       <c r="E19">
-        <v>1.028996922010182</v>
+        <v>1.022940977720894</v>
       </c>
       <c r="F19">
-        <v>1.034650608669651</v>
+        <v>1.032055588107067</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051150667468894</v>
+        <v>1.04702660879119</v>
       </c>
       <c r="J19">
-        <v>1.043170566525723</v>
+        <v>1.034113768338522</v>
       </c>
       <c r="K19">
-        <v>1.045358784622272</v>
+        <v>1.036883397875704</v>
       </c>
       <c r="L19">
-        <v>1.042271259111963</v>
+        <v>1.036312645275603</v>
       </c>
       <c r="M19">
-        <v>1.047835396390303</v>
+        <v>1.045281322657409</v>
       </c>
       <c r="N19">
-        <v>1.044651988383526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014943982552989</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044974933606416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014520401616738</v>
+        <v>1.00515573944863</v>
       </c>
       <c r="D20">
-        <v>1.030329896117993</v>
+        <v>1.021791035519246</v>
       </c>
       <c r="E20">
-        <v>1.026994120344537</v>
+        <v>1.020807665304973</v>
       </c>
       <c r="F20">
-        <v>1.032485318278514</v>
+        <v>1.029578795366043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05026059787125</v>
+        <v>1.04612698136666</v>
       </c>
       <c r="J20">
-        <v>1.041502837588855</v>
+        <v>1.032489352561223</v>
       </c>
       <c r="K20">
-        <v>1.043859602590317</v>
+        <v>1.035461240609534</v>
       </c>
       <c r="L20">
-        <v>1.040578356163734</v>
+        <v>1.034494245223789</v>
       </c>
       <c r="M20">
-        <v>1.045980031039141</v>
+        <v>1.043120740344392</v>
       </c>
       <c r="N20">
-        <v>1.042981891080277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014307029914572</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042740238234352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006725841941351</v>
+        <v>1.000079876007958</v>
       </c>
       <c r="D21">
-        <v>1.024327244068325</v>
+        <v>1.01823165186486</v>
       </c>
       <c r="E21">
-        <v>1.020334712794657</v>
+        <v>1.016862548653769</v>
       </c>
       <c r="F21">
-        <v>1.025286564741728</v>
+        <v>1.025815581366059</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047284222162225</v>
+        <v>1.044638438125989</v>
       </c>
       <c r="J21">
-        <v>1.035945025351606</v>
+        <v>1.029574258018155</v>
       </c>
       <c r="K21">
-        <v>1.03886193542304</v>
+        <v>1.03287566089273</v>
       </c>
       <c r="L21">
-        <v>1.034940813990196</v>
+        <v>1.031531345479434</v>
       </c>
       <c r="M21">
-        <v>1.0398042053525</v>
+        <v>1.040323837056228</v>
       </c>
       <c r="N21">
-        <v>1.03741618611216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013292399802739</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040486002717166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001672955853217</v>
+        <v>0.9968611795346095</v>
       </c>
       <c r="D22">
-        <v>1.020441958316572</v>
+        <v>1.015985250645862</v>
       </c>
       <c r="E22">
-        <v>1.016026721181176</v>
+        <v>1.014387054826649</v>
       </c>
       <c r="F22">
-        <v>1.020630315362656</v>
+        <v>1.023479892887677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045345866268886</v>
+        <v>1.043698643056626</v>
       </c>
       <c r="J22">
-        <v>1.032339896271922</v>
+        <v>1.027739759366927</v>
       </c>
       <c r="K22">
-        <v>1.035619049407475</v>
+        <v>1.031246551471301</v>
       </c>
       <c r="L22">
-        <v>1.031287233965608</v>
+        <v>1.029678789485161</v>
       </c>
       <c r="M22">
-        <v>1.035803868589811</v>
+        <v>1.038600130503135</v>
       </c>
       <c r="N22">
-        <v>1.033805937335669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012657224346101</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039121803231912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004366663779177</v>
+        <v>0.9985740209509096</v>
       </c>
       <c r="D23">
-        <v>1.022512611822572</v>
+        <v>1.017180194181398</v>
       </c>
       <c r="E23">
-        <v>1.018322439261213</v>
+        <v>1.015703601247486</v>
       </c>
       <c r="F23">
-        <v>1.023111563414895</v>
+        <v>1.024721850734011</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046380021207956</v>
+        <v>1.04419946977933</v>
       </c>
       <c r="J23">
-        <v>1.034261984023726</v>
+        <v>1.028716145533936</v>
       </c>
       <c r="K23">
-        <v>1.037348102954041</v>
+        <v>1.032113708069233</v>
       </c>
       <c r="L23">
-        <v>1.033234843309667</v>
+        <v>1.030664495834021</v>
       </c>
       <c r="M23">
-        <v>1.037936127439917</v>
+        <v>1.03951711951858</v>
       </c>
       <c r="N23">
-        <v>1.035730754672548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012995308127273</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039847539579563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014648639806744</v>
+        <v>1.005175316999781</v>
       </c>
       <c r="D24">
-        <v>1.03042874329415</v>
+        <v>1.021795770680802</v>
       </c>
       <c r="E24">
-        <v>1.027103823779851</v>
+        <v>1.020794629362267</v>
       </c>
       <c r="F24">
-        <v>1.03260391837124</v>
+        <v>1.029529544488312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050309414216345</v>
+        <v>1.046113874545381</v>
       </c>
       <c r="J24">
-        <v>1.041594233785982</v>
+        <v>1.032475592568918</v>
       </c>
       <c r="K24">
-        <v>1.043941767916254</v>
+        <v>1.035450642340058</v>
       </c>
       <c r="L24">
-        <v>1.040671116640837</v>
+        <v>1.034466150581967</v>
       </c>
       <c r="M24">
-        <v>1.046081683255863</v>
+        <v>1.043057201107905</v>
       </c>
       <c r="N24">
-        <v>1.043073417070486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014296577254879</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042649273901461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025978481441711</v>
+        <v>1.012561140370108</v>
       </c>
       <c r="D25">
-        <v>1.039172652200856</v>
+        <v>1.026978553147807</v>
       </c>
       <c r="E25">
-        <v>1.036814166469982</v>
+        <v>1.026523453710446</v>
       </c>
       <c r="F25">
-        <v>1.043103589650403</v>
+        <v>1.034949605126864</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054600313037726</v>
+        <v>1.048222027993559</v>
       </c>
       <c r="J25">
-        <v>1.049662116332559</v>
+        <v>1.03667304263113</v>
       </c>
       <c r="K25">
-        <v>1.051191842328847</v>
+        <v>1.039172015252274</v>
       </c>
       <c r="L25">
-        <v>1.048866658611643</v>
+        <v>1.038723521480743</v>
       </c>
       <c r="M25">
-        <v>1.055067697038417</v>
+        <v>1.047028560915986</v>
       </c>
       <c r="N25">
-        <v>1.051152756935679</v>
+        <v>1.015748295840033</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045792322808805</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018248468121085</v>
+        <v>1.017264788359228</v>
       </c>
       <c r="D2">
-        <v>1.030982303723992</v>
+        <v>1.029430063703603</v>
       </c>
       <c r="E2">
-        <v>1.030959168885034</v>
+        <v>1.030184672265021</v>
       </c>
       <c r="F2">
-        <v>1.039153991247505</v>
+        <v>1.038518009456895</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049816880206383</v>
+        <v>1.049131864334064</v>
       </c>
       <c r="J2">
-        <v>1.039896740952317</v>
+        <v>1.03894109582009</v>
       </c>
       <c r="K2">
-        <v>1.042026242303664</v>
+        <v>1.040494069163619</v>
       </c>
       <c r="L2">
-        <v>1.042003405989844</v>
+        <v>1.041238912927503</v>
       </c>
       <c r="M2">
-        <v>1.050093522862278</v>
+        <v>1.049465593190106</v>
       </c>
       <c r="N2">
-        <v>1.016862132547647</v>
+        <v>1.017290947693396</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048218013057586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047721053904177</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022746654535718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022268051438605</v>
+        <v>1.02105589426877</v>
       </c>
       <c r="D3">
-        <v>1.033818449070741</v>
+        <v>1.031981520006937</v>
       </c>
       <c r="E3">
-        <v>1.034107375031124</v>
+        <v>1.033145359070445</v>
       </c>
       <c r="F3">
-        <v>1.042142348201838</v>
+        <v>1.041356213662665</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050926868538605</v>
+        <v>1.050096343993326</v>
       </c>
       <c r="J3">
-        <v>1.042169540696791</v>
+        <v>1.040988560493245</v>
       </c>
       <c r="K3">
-        <v>1.044036156690025</v>
+        <v>1.042220912707124</v>
       </c>
       <c r="L3">
-        <v>1.044321680539244</v>
+        <v>1.043371001481686</v>
       </c>
       <c r="M3">
-        <v>1.052262975420189</v>
+        <v>1.051485927442737</v>
       </c>
       <c r="N3">
-        <v>1.017646694985487</v>
+        <v>1.01785126174985</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049934969186064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049319995471219</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023113080943848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024820630172644</v>
+        <v>1.02346506709467</v>
       </c>
       <c r="D4">
-        <v>1.035622182326882</v>
+        <v>1.03360564392336</v>
       </c>
       <c r="E4">
-        <v>1.036112448774105</v>
+        <v>1.035032632831283</v>
       </c>
       <c r="F4">
-        <v>1.044047577239803</v>
+        <v>1.04316716270193</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051623565976175</v>
+        <v>1.050701222258407</v>
       </c>
       <c r="J4">
-        <v>1.043610048139932</v>
+        <v>1.042287001412736</v>
       </c>
       <c r="K4">
-        <v>1.045308879031975</v>
+        <v>1.043314715556556</v>
       </c>
       <c r="L4">
-        <v>1.045793721804515</v>
+        <v>1.044725859917238</v>
       </c>
       <c r="M4">
-        <v>1.053641935517523</v>
+        <v>1.052771084273641</v>
       </c>
       <c r="N4">
-        <v>1.018143589400304</v>
+        <v>1.018206415143219</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051026308805809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050337097992927</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023342608390205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025882508482742</v>
+        <v>1.024467668900419</v>
       </c>
       <c r="D5">
-        <v>1.036373138606816</v>
+        <v>1.034282151856492</v>
       </c>
       <c r="E5">
-        <v>1.036947930050934</v>
+        <v>1.035819402240437</v>
       </c>
       <c r="F5">
-        <v>1.044841919477855</v>
+        <v>1.043922528825576</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05191139623811</v>
+        <v>1.050950990037749</v>
       </c>
       <c r="J5">
-        <v>1.044208598807295</v>
+        <v>1.042826688164695</v>
       </c>
       <c r="K5">
-        <v>1.045837423900803</v>
+        <v>1.043769022845605</v>
       </c>
       <c r="L5">
-        <v>1.046406026325005</v>
+        <v>1.045289657809163</v>
       </c>
       <c r="M5">
-        <v>1.054215860700046</v>
+        <v>1.053306191230268</v>
       </c>
       <c r="N5">
-        <v>1.018349964369618</v>
+        <v>1.018353985938114</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051480525461373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050760593473534</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023437318351647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026060154186808</v>
+        <v>1.024635419716739</v>
       </c>
       <c r="D6">
-        <v>1.036498802949707</v>
+        <v>1.034395376917518</v>
       </c>
       <c r="E6">
-        <v>1.037087780164551</v>
+        <v>1.03595111998691</v>
       </c>
       <c r="F6">
-        <v>1.044974910510755</v>
+        <v>1.04404901340969</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051959430096705</v>
+        <v>1.050992664023486</v>
       </c>
       <c r="J6">
-        <v>1.044308690393348</v>
+        <v>1.042916945748222</v>
       </c>
       <c r="K6">
-        <v>1.045925791662371</v>
+        <v>1.04384498224374</v>
       </c>
       <c r="L6">
-        <v>1.046508456173338</v>
+        <v>1.045383986700384</v>
       </c>
       <c r="M6">
-        <v>1.054311890075905</v>
+        <v>1.053395738273945</v>
       </c>
       <c r="N6">
-        <v>1.018384469559525</v>
+        <v>1.01837866300764</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051556525134924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050831462961015</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023453116844217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024834862696531</v>
+        <v>1.023487871199523</v>
       </c>
       <c r="D7">
-        <v>1.035632245203457</v>
+        <v>1.033622198798805</v>
       </c>
       <c r="E7">
-        <v>1.036123641516098</v>
+        <v>1.035051091623579</v>
       </c>
       <c r="F7">
-        <v>1.044058217026514</v>
+        <v>1.043183529029967</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051627431742159</v>
+        <v>1.05070951397871</v>
       </c>
       <c r="J7">
-        <v>1.043618073428887</v>
+        <v>1.042303379357568</v>
       </c>
       <c r="K7">
-        <v>1.045315966844623</v>
+        <v>1.043328215201759</v>
       </c>
       <c r="L7">
-        <v>1.04580192893006</v>
+        <v>1.044741248283507</v>
       </c>
       <c r="M7">
-        <v>1.053649626885052</v>
+        <v>1.052784436521154</v>
       </c>
       <c r="N7">
-        <v>1.018146356815951</v>
+        <v>1.018237006541938</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051032395920274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050347665259844</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023346225355259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019617135170113</v>
+        <v>1.018584234717373</v>
       </c>
       <c r="D8">
-        <v>1.031947422164439</v>
+        <v>1.030321236511814</v>
       </c>
       <c r="E8">
-        <v>1.032029883590031</v>
+        <v>1.03121579788671</v>
       </c>
       <c r="F8">
-        <v>1.040169926716347</v>
+        <v>1.039501960441016</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050196524466046</v>
+        <v>1.049477171022615</v>
       </c>
       <c r="J8">
-        <v>1.040671196006124</v>
+        <v>1.039666747200762</v>
       </c>
       <c r="K8">
-        <v>1.042711358899379</v>
+        <v>1.041105572669168</v>
       </c>
       <c r="L8">
-        <v>1.042792788036032</v>
+        <v>1.041988902436463</v>
       </c>
       <c r="M8">
-        <v>1.050831932633735</v>
+        <v>1.050172171972292</v>
       </c>
       <c r="N8">
-        <v>1.017129545368144</v>
+        <v>1.017569052499874</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048802408481942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048280257894986</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022879402241944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01003586098911</v>
+        <v>1.009562809257412</v>
       </c>
       <c r="D9">
-        <v>1.02520435181294</v>
+        <v>1.024267880230416</v>
       </c>
       <c r="E9">
-        <v>1.024560759281135</v>
+        <v>1.024205554509248</v>
       </c>
       <c r="F9">
-        <v>1.033091455604947</v>
+        <v>1.032791234147693</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047505625064966</v>
+        <v>1.047139215311216</v>
       </c>
       <c r="J9">
-        <v>1.035239137472617</v>
+        <v>1.034782341255347</v>
       </c>
       <c r="K9">
-        <v>1.037901325557242</v>
+        <v>1.036979126554573</v>
       </c>
       <c r="L9">
-        <v>1.037267538317842</v>
+        <v>1.036917751908758</v>
       </c>
       <c r="M9">
-        <v>1.045669529594622</v>
+        <v>1.045373791743562</v>
       </c>
       <c r="N9">
-        <v>1.015252531494964</v>
+        <v>1.016241275503315</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044716747671812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04448269231271</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021989863250595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003444673633995</v>
+        <v>1.003406529280392</v>
       </c>
       <c r="D10">
-        <v>1.020595654821846</v>
+        <v>1.020171434256521</v>
       </c>
       <c r="E10">
-        <v>1.01949315420171</v>
+        <v>1.01949437557222</v>
       </c>
       <c r="F10">
-        <v>1.028346315182979</v>
+        <v>1.028331831083764</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045638341570385</v>
+        <v>1.045538409269585</v>
       </c>
       <c r="J10">
-        <v>1.03152228575143</v>
+        <v>1.031485640217285</v>
       </c>
       <c r="K10">
-        <v>1.034602745634631</v>
+        <v>1.03418579413693</v>
       </c>
       <c r="L10">
-        <v>1.0335191527346</v>
+        <v>1.03352035312954</v>
       </c>
       <c r="M10">
-        <v>1.042221958809079</v>
+        <v>1.042207717970009</v>
       </c>
       <c r="N10">
-        <v>1.013973972096459</v>
+        <v>1.015461834495391</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042039454354517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042028184405719</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02138354410058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001179258860283</v>
+        <v>1.001327755808839</v>
       </c>
       <c r="D11">
-        <v>1.019111614433455</v>
+        <v>1.018885185143037</v>
       </c>
       <c r="E11">
-        <v>1.018048391432126</v>
+        <v>1.018200914393559</v>
       </c>
       <c r="F11">
-        <v>1.027368109637989</v>
+        <v>1.027475231321368</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045185744037091</v>
+        <v>1.045191488778889</v>
       </c>
       <c r="J11">
-        <v>1.030503061441298</v>
+        <v>1.030645402715598</v>
       </c>
       <c r="K11">
-        <v>1.033681894645332</v>
+        <v>1.033459531116639</v>
       </c>
       <c r="L11">
-        <v>1.032637783257757</v>
+        <v>1.032787561406363</v>
       </c>
       <c r="M11">
-        <v>1.041791722895465</v>
+        <v>1.041896961762974</v>
       </c>
       <c r="N11">
-        <v>1.013686938766584</v>
+        <v>1.015508809821539</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042133348301517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.0422165909596</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021272292284565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000587318088347</v>
+        <v>1.000780349531712</v>
       </c>
       <c r="D12">
-        <v>1.018774493181745</v>
+        <v>1.018591808054667</v>
       </c>
       <c r="E12">
-        <v>1.017811459815729</v>
+        <v>1.017998019200039</v>
       </c>
       <c r="F12">
-        <v>1.027418867697</v>
+        <v>1.027553747571679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045166202143315</v>
+        <v>1.045193862359441</v>
       </c>
       <c r="J12">
-        <v>1.030366842340634</v>
+        <v>1.030551720242824</v>
       </c>
       <c r="K12">
-        <v>1.033550631165636</v>
+        <v>1.033371280883879</v>
       </c>
       <c r="L12">
-        <v>1.032605195145272</v>
+        <v>1.032788342176173</v>
       </c>
       <c r="M12">
-        <v>1.042038966289307</v>
+        <v>1.042171438458654</v>
       </c>
       <c r="N12">
-        <v>1.013693116451421</v>
+        <v>1.015622572007582</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042653997170122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042758745857029</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021288382185981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001244778276807</v>
+        <v>1.001362083647969</v>
       </c>
       <c r="D13">
-        <v>1.019296939508587</v>
+        <v>1.019031235711589</v>
       </c>
       <c r="E13">
-        <v>1.018489987086726</v>
+        <v>1.018611354131872</v>
       </c>
       <c r="F13">
-        <v>1.028276564944163</v>
+        <v>1.02835994016062</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.0454825953477</v>
+        <v>1.045462272705023</v>
       </c>
       <c r="J13">
-        <v>1.03090412142247</v>
+        <v>1.031016498696328</v>
       </c>
       <c r="K13">
-        <v>1.034020723703489</v>
+        <v>1.033759848078009</v>
       </c>
       <c r="L13">
-        <v>1.033228444760265</v>
+        <v>1.033347602955907</v>
       </c>
       <c r="M13">
-        <v>1.042839081728719</v>
+        <v>1.042920976711003</v>
       </c>
       <c r="N13">
-        <v>1.01392606423127</v>
+        <v>1.015758510850868</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04356226218291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043627002216126</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021401777038948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002267319264065</v>
+        <v>1.002278448438741</v>
       </c>
       <c r="D14">
-        <v>1.020049037567328</v>
+        <v>1.019669169783008</v>
       </c>
       <c r="E14">
-        <v>1.019375218862142</v>
+        <v>1.019407374381106</v>
       </c>
       <c r="F14">
-        <v>1.029238258620651</v>
+        <v>1.029250777593744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045853868840614</v>
+        <v>1.045769312468673</v>
       </c>
       <c r="J14">
-        <v>1.031581598074478</v>
+        <v>1.031592266585073</v>
       </c>
       <c r="K14">
-        <v>1.034618996955679</v>
+        <v>1.034245944009505</v>
       </c>
       <c r="L14">
-        <v>1.033957271105134</v>
+        <v>1.033988849065132</v>
       </c>
       <c r="M14">
-        <v>1.043645348887257</v>
+        <v>1.043657648544991</v>
       </c>
       <c r="N14">
-        <v>1.014190337042624</v>
+        <v>1.015864210087742</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044372320821052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044382042704941</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021524806938474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002791478607418</v>
+        <v>1.002751477438546</v>
       </c>
       <c r="D15">
-        <v>1.020422579000672</v>
+        <v>1.019987991694976</v>
       </c>
       <c r="E15">
-        <v>1.019797456038716</v>
+        <v>1.019787186349893</v>
       </c>
       <c r="F15">
-        <v>1.029662524154539</v>
+        <v>1.029641248184736</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046020297469297</v>
+        <v>1.045905468690634</v>
       </c>
       <c r="J15">
-        <v>1.031898199143287</v>
+        <v>1.03185983903799</v>
       </c>
       <c r="K15">
-        <v>1.034899518014879</v>
+        <v>1.0344726671855</v>
       </c>
       <c r="L15">
-        <v>1.034285526123281</v>
+        <v>1.034275439446644</v>
       </c>
       <c r="M15">
-        <v>1.04397697520307</v>
+        <v>1.043956069043253</v>
       </c>
       <c r="N15">
-        <v>1.014305853050124</v>
+        <v>1.015899326826174</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044671852259242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044655328063954</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021577425109559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005450495904971</v>
+        <v>1.00517734642002</v>
       </c>
       <c r="D16">
-        <v>1.022266497913799</v>
+        <v>1.021580288905131</v>
       </c>
       <c r="E16">
-        <v>1.021811568750173</v>
+        <v>1.021610288431659</v>
       </c>
       <c r="F16">
-        <v>1.031533132056794</v>
+        <v>1.031359190277704</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046759919177336</v>
+        <v>1.046509116347619</v>
       </c>
       <c r="J16">
-        <v>1.033373420356388</v>
+        <v>1.033110912774459</v>
       </c>
       <c r="K16">
-        <v>1.036209501842692</v>
+        <v>1.03553497115796</v>
       </c>
       <c r="L16">
-        <v>1.035762312678449</v>
+        <v>1.035564459710724</v>
       </c>
       <c r="M16">
-        <v>1.045320390248625</v>
+        <v>1.045149338744045</v>
       </c>
       <c r="N16">
-        <v>1.014803501064477</v>
+        <v>1.0160245147012</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045695108599933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.045559905902119</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021800782607607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00695597173565</v>
+        <v>1.006570455663974</v>
       </c>
       <c r="D17">
-        <v>1.023288647144496</v>
+        <v>1.022477704684516</v>
       </c>
       <c r="E17">
-        <v>1.022894009436555</v>
+        <v>1.02260171590971</v>
       </c>
       <c r="F17">
-        <v>1.032460141031673</v>
+        <v>1.032213171353985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047130693100763</v>
+        <v>1.046814499130361</v>
       </c>
       <c r="J17">
-        <v>1.034149441861783</v>
+        <v>1.033778461644586</v>
       </c>
       <c r="K17">
-        <v>1.036900302401005</v>
+        <v>1.036102771639488</v>
       </c>
       <c r="L17">
-        <v>1.036512187954348</v>
+        <v>1.036224730142935</v>
       </c>
       <c r="M17">
-        <v>1.045921996809927</v>
+        <v>1.045679016159301</v>
       </c>
       <c r="N17">
-        <v>1.015046338740667</v>
+        <v>1.016094721191305</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046042099349071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.045850023323788</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021909180431741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007599953350882</v>
+        <v>1.007182407919337</v>
       </c>
       <c r="D18">
-        <v>1.023687188390178</v>
+        <v>1.022839106969178</v>
       </c>
       <c r="E18">
-        <v>1.023249370937264</v>
+        <v>1.022932618359955</v>
       </c>
       <c r="F18">
-        <v>1.032612956008219</v>
+        <v>1.032345893403614</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047209560408308</v>
+        <v>1.04687600110279</v>
       </c>
       <c r="J18">
-        <v>1.034378886625852</v>
+        <v>1.033976791909041</v>
       </c>
       <c r="K18">
-        <v>1.037109203682652</v>
+        <v>1.036274918612636</v>
       </c>
       <c r="L18">
-        <v>1.036678504853058</v>
+        <v>1.036366907344676</v>
       </c>
       <c r="M18">
-        <v>1.045891530320115</v>
+        <v>1.045628713404835</v>
       </c>
       <c r="N18">
-        <v>1.015085547098053</v>
+        <v>1.01607984108204</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045781365040834</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.045573565514302</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021921813159701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007462757581441</v>
+        <v>1.007077406182673</v>
       </c>
       <c r="D19">
-        <v>1.02352111830928</v>
+        <v>1.022708357361932</v>
       </c>
       <c r="E19">
-        <v>1.022940977720894</v>
+        <v>1.022652861269409</v>
       </c>
       <c r="F19">
-        <v>1.032055588107067</v>
+        <v>1.031810713657972</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04702660879119</v>
+        <v>1.046714675550351</v>
       </c>
       <c r="J19">
-        <v>1.034113768338522</v>
+        <v>1.033742597927454</v>
       </c>
       <c r="K19">
-        <v>1.036883397875704</v>
+        <v>1.036083793081955</v>
       </c>
       <c r="L19">
-        <v>1.036312645275603</v>
+        <v>1.036029196283467</v>
       </c>
       <c r="M19">
-        <v>1.045281322657409</v>
+        <v>1.045040325701595</v>
       </c>
       <c r="N19">
-        <v>1.014943982552989</v>
+        <v>1.015969322986541</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044974933606416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.044784324634816</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02184751391139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00515573944863</v>
+        <v>1.00497724500093</v>
       </c>
       <c r="D20">
-        <v>1.021791035519246</v>
+        <v>1.021211648363924</v>
       </c>
       <c r="E20">
-        <v>1.020807665304973</v>
+        <v>1.020693065761315</v>
       </c>
       <c r="F20">
-        <v>1.029578795366043</v>
+        <v>1.029471675869722</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04612698136666</v>
+        <v>1.045943328112449</v>
       </c>
       <c r="J20">
-        <v>1.032489352561223</v>
+        <v>1.032317641351895</v>
       </c>
       <c r="K20">
-        <v>1.035461240609534</v>
+        <v>1.034891496344392</v>
       </c>
       <c r="L20">
-        <v>1.034494245223789</v>
+        <v>1.034381556606846</v>
       </c>
       <c r="M20">
-        <v>1.043120740344392</v>
+        <v>1.043015368132963</v>
       </c>
       <c r="N20">
-        <v>1.014307029914572</v>
+        <v>1.015588885573164</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042740238234352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.042656847541749</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.0215355999954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000079876007958</v>
+        <v>1.000376365525323</v>
       </c>
       <c r="D21">
-        <v>1.01823165186486</v>
+        <v>1.018161934285878</v>
       </c>
       <c r="E21">
-        <v>1.016862548653769</v>
+        <v>1.017142165225003</v>
       </c>
       <c r="F21">
-        <v>1.025815581366059</v>
+        <v>1.026023369460505</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044638438125989</v>
+        <v>1.044735713306797</v>
       </c>
       <c r="J21">
-        <v>1.029574258018155</v>
+        <v>1.029858359474835</v>
       </c>
       <c r="K21">
-        <v>1.03287566089273</v>
+        <v>1.032807203465334</v>
       </c>
       <c r="L21">
-        <v>1.031531345479434</v>
+        <v>1.031805892502221</v>
       </c>
       <c r="M21">
-        <v>1.040323837056228</v>
+        <v>1.04052794235887</v>
       </c>
       <c r="N21">
-        <v>1.013292399802739</v>
+        <v>1.015335576696484</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040486002717166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.040647538364383</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021082406716001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9968611795346095</v>
+        <v>0.9974594189102386</v>
       </c>
       <c r="D22">
-        <v>1.015985250645862</v>
+        <v>1.016239190278264</v>
       </c>
       <c r="E22">
-        <v>1.014387054826649</v>
+        <v>1.014917225992779</v>
       </c>
       <c r="F22">
-        <v>1.023479892887677</v>
+        <v>1.023888064890426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043698643056626</v>
+        <v>1.043974339973735</v>
       </c>
       <c r="J22">
-        <v>1.027739759366927</v>
+        <v>1.028311526951674</v>
       </c>
       <c r="K22">
-        <v>1.031246551471301</v>
+        <v>1.031495666952458</v>
       </c>
       <c r="L22">
-        <v>1.029678789485161</v>
+        <v>1.030198850906332</v>
       </c>
       <c r="M22">
-        <v>1.038600130503135</v>
+        <v>1.039000697307447</v>
       </c>
       <c r="N22">
-        <v>1.012657224346101</v>
+        <v>1.015174987071011</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039121803231912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.039438825537942</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020797802104018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9985740209509096</v>
+        <v>0.9989958706185754</v>
       </c>
       <c r="D23">
-        <v>1.017180194181398</v>
+        <v>1.017248825285637</v>
       </c>
       <c r="E23">
-        <v>1.015703601247486</v>
+        <v>1.016086791782723</v>
       </c>
       <c r="F23">
-        <v>1.024721850734011</v>
+        <v>1.025012564309256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I23">
-        <v>1.04419946977933</v>
+        <v>1.044371518488256</v>
       </c>
       <c r="J23">
-        <v>1.028716145533936</v>
+        <v>1.029119883770047</v>
       </c>
       <c r="K23">
-        <v>1.032113708069233</v>
+        <v>1.032181069056287</v>
       </c>
       <c r="L23">
-        <v>1.030664495834021</v>
+        <v>1.031040570833781</v>
       </c>
       <c r="M23">
-        <v>1.03951711951858</v>
+        <v>1.039802557030198</v>
       </c>
       <c r="N23">
-        <v>1.012995308127273</v>
+        <v>1.015216475485125</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039847539579563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.040073444401233</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020945229914555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005175316999781</v>
+        <v>1.004997666169268</v>
       </c>
       <c r="D24">
-        <v>1.021795770680802</v>
+        <v>1.021217349559584</v>
       </c>
       <c r="E24">
-        <v>1.020794629362267</v>
+        <v>1.020680976435637</v>
       </c>
       <c r="F24">
-        <v>1.029529544488312</v>
+        <v>1.029423108962832</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046113874545381</v>
+        <v>1.045931024538929</v>
       </c>
       <c r="J24">
-        <v>1.032475592568918</v>
+        <v>1.032304683070159</v>
       </c>
       <c r="K24">
-        <v>1.035450642340058</v>
+        <v>1.034881835569163</v>
       </c>
       <c r="L24">
-        <v>1.034466150581967</v>
+        <v>1.034354390428508</v>
       </c>
       <c r="M24">
-        <v>1.043057201107905</v>
+        <v>1.042952499702911</v>
       </c>
       <c r="N24">
-        <v>1.014296577254879</v>
+        <v>1.015577353550412</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042649273901461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.042566410000825</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021529389591624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012561140370108</v>
+        <v>1.011927193584439</v>
       </c>
       <c r="D25">
-        <v>1.026978553147807</v>
+        <v>1.025849778204664</v>
       </c>
       <c r="E25">
-        <v>1.026523453710446</v>
+        <v>1.026036178748125</v>
       </c>
       <c r="F25">
-        <v>1.034949605126864</v>
+        <v>1.034543593621542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048222027993559</v>
+        <v>1.047755868193035</v>
       </c>
       <c r="J25">
-        <v>1.03667304263113</v>
+        <v>1.036059720883932</v>
       </c>
       <c r="K25">
-        <v>1.039172015252274</v>
+        <v>1.038059637868124</v>
       </c>
       <c r="L25">
-        <v>1.038723521480743</v>
+        <v>1.03824332744253</v>
       </c>
       <c r="M25">
-        <v>1.047028560915986</v>
+        <v>1.04662832791623</v>
       </c>
       <c r="N25">
-        <v>1.015748295840033</v>
+        <v>1.016557828162475</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045792322808805</v>
+        <v>1.045475567459518</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022224132732559</v>
       </c>
     </row>
   </sheetData>
